--- a/報連相.xlsx
+++ b/報連相.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.140.26\共通社員限\中国インターンシップ\4.研修実施\3.社会人基礎\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\しめいこう\Japan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -160,9 +160,9 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="t.tsuda - 個人用ビュー" guid="{86560336-D72E-467B-9767-4D3A9DBAF0EC}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="831" activeSheetId="2" showComments="commIndAndComment"/>
+    <customWorkbookView name="Lib - 個人用ビュー" guid="{A6061395-DA86-4989-A6E8-0C4165E04979}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1020" windowHeight="549" activeSheetId="2"/>
     <customWorkbookView name="s.nagashima - 個人用ビュー" guid="{8B5E8827-A487-469D-8074-A5AA776D92BB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1928" yWindow="-360" windowWidth="1936" windowHeight="1066" activeSheetId="4"/>
-    <customWorkbookView name="Lib - 個人用ビュー" guid="{A6061395-DA86-4989-A6E8-0C4165E04979}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1020" windowHeight="549" activeSheetId="2"/>
-    <customWorkbookView name="t.tsuda - 個人用ビュー" guid="{86560336-D72E-467B-9767-4D3A9DBAF0EC}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="831" activeSheetId="2" showComments="commIndAndComment"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2126,9 +2126,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="入試ＰＧ"/>
+      <sheetName val="利用ＤＢ"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2147,6 +2149,8 @@
       <sheetName val="設定根拠"/>
       <sheetName val="投資予算"/>
       <sheetName val="管理会計科目"/>
+      <sheetName val="ﾕｰｻﾞｰ設定"/>
+      <sheetName val="発注書"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -5583,6 +5587,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6529,8 +6535,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8B5E8827-A487-469D-8074-A5AA776D92BB}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1">
-      <selection activeCell="D9" sqref="D9"/>
+    <customSheetView guid="{86560336-D72E-467B-9767-4D3A9DBAF0EC}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" state="hidden">
+      <selection activeCell="D11" sqref="D11"/>
       <rowBreaks count="1" manualBreakCount="1">
         <brk id="9" max="3" man="1"/>
       </rowBreaks>
@@ -6553,8 +6559,8 @@
         <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{86560336-D72E-467B-9767-4D3A9DBAF0EC}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" state="hidden">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{8B5E8827-A487-469D-8074-A5AA776D92BB}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1">
+      <selection activeCell="D9" sqref="D9"/>
       <rowBreaks count="1" manualBreakCount="1">
         <brk id="9" max="3" man="1"/>
       </rowBreaks>
